--- a/import master product update.xlsx
+++ b/import master product update.xlsx
@@ -4416,11 +4416,11 @@
   </sheetPr>
   <dimension ref="A1:E785"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A37" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G39" activeCellId="0" sqref="G39"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A42" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E81" activeCellId="0" sqref="E81"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.8359375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="1" style="0" width="30.66"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1024" style="0" width="9.14"/>
